--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H2">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q2">
-        <v>1.223059364407768</v>
+        <v>12.97266190776566</v>
       </c>
       <c r="R2">
-        <v>1.223059364407768</v>
+        <v>116.753957169891</v>
       </c>
       <c r="S2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="T2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H3">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N3">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q3">
-        <v>529.0541331950394</v>
+        <v>2055.008624680247</v>
       </c>
       <c r="R3">
-        <v>529.0541331950394</v>
+        <v>18495.07762212222</v>
       </c>
       <c r="S3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="T3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H4">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N4">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q4">
-        <v>109.6143426597808</v>
+        <v>432.607177715585</v>
       </c>
       <c r="R4">
-        <v>109.6143426597808</v>
+        <v>3893.464599440265</v>
       </c>
       <c r="S4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="T4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
     </row>
   </sheetData>
